--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 7.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 7.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>182.3391826</v>
+        <v>62.32575999999999</v>
       </c>
       <c r="B2">
-        <v>100.2945550024568</v>
+        <v>26.5830484591666</v>
       </c>
       <c r="C2">
-        <v>93.1183600000001</v>
+        <v>60.342</v>
       </c>
       <c r="D2">
-        <v>67.22555000000108</v>
+        <v>42.38220000000001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>145.6005956</v>
+        <v>50.91589999999999</v>
       </c>
       <c r="B3">
-        <v>81.23359086228098</v>
+        <v>18.91347842809461</v>
       </c>
       <c r="C3">
-        <v>90.78755999999998</v>
+        <v>62.95399999999999</v>
       </c>
       <c r="D3">
-        <v>63.9150700000006</v>
+        <v>42.39960000000002</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>124.8402818</v>
+        <v>52.33684</v>
       </c>
       <c r="B4">
-        <v>71.73459727180732</v>
+        <v>28.85134092714583</v>
       </c>
       <c r="C4">
-        <v>88.06838000000022</v>
+        <v>61.98999999999999</v>
       </c>
       <c r="D4">
-        <v>60.56828399999937</v>
+        <v>42.38780000000001</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>123.525314</v>
+        <v>54.14864000000001</v>
       </c>
       <c r="B5">
-        <v>72.53196343040635</v>
+        <v>25.87828308428517</v>
       </c>
       <c r="C5">
-        <v>87.79141999999987</v>
+        <v>61.818</v>
       </c>
       <c r="D5">
-        <v>60.45954199999956</v>
+        <v>42.4034</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>121.6469172</v>
+        <v>57.89466</v>
       </c>
       <c r="B6">
-        <v>69.15995498859978</v>
+        <v>22.46353311713009</v>
       </c>
       <c r="C6">
-        <v>87.63892000000007</v>
+        <v>61.75200000000002</v>
       </c>
       <c r="D6">
-        <v>59.54722199999888</v>
+        <v>42.41960000000001</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>132.9625236</v>
+        <v>53.44838000000002</v>
       </c>
       <c r="B7">
-        <v>68.3742261311866</v>
+        <v>24.5900667147448</v>
       </c>
       <c r="C7">
-        <v>88.60773999999996</v>
+        <v>60.674</v>
       </c>
       <c r="D7">
-        <v>57.38886000000209</v>
+        <v>42.4164</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>127.387523</v>
+        <v>60.82470000000003</v>
       </c>
       <c r="B8">
-        <v>60.78329170361432</v>
+        <v>26.91890612877871</v>
       </c>
       <c r="C8">
-        <v>87.59767999999993</v>
+        <v>62.08200000000001</v>
       </c>
       <c r="D8">
-        <v>56.67478400000206</v>
+        <v>42.42000000000002</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>125.339483</v>
+        <v>47.94667999999999</v>
       </c>
       <c r="B9">
-        <v>58.82805346808704</v>
+        <v>18.70183452438824</v>
       </c>
       <c r="C9">
-        <v>84.34674</v>
+        <v>64.64000000000001</v>
       </c>
       <c r="D9">
-        <v>54.6136759999997</v>
+        <v>42.37700000000002</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>126.1301716</v>
+        <v>56.4004</v>
       </c>
       <c r="B10">
-        <v>59.0003629030716</v>
+        <v>26.13356029476275</v>
       </c>
       <c r="C10">
-        <v>81.99476000000013</v>
+        <v>62.022</v>
       </c>
       <c r="D10">
-        <v>53.41978599999948</v>
+        <v>42.43360000000001</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>123.3305642</v>
+        <v>50.28046000000001</v>
       </c>
       <c r="B11">
-        <v>58.7783842912262</v>
+        <v>22.41139492955314</v>
       </c>
       <c r="C11">
-        <v>79.73296000000003</v>
+        <v>61.52199999999999</v>
       </c>
       <c r="D11">
-        <v>52.52888200000139</v>
+        <v>42.42360000000001</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>128.5798276</v>
+        <v>49.73642</v>
       </c>
       <c r="B12">
-        <v>60.84698482242386</v>
+        <v>20.92922824863831</v>
       </c>
       <c r="C12">
-        <v>78.41356000000012</v>
+        <v>63.25</v>
       </c>
       <c r="D12">
-        <v>52.18766800000133</v>
+        <v>42.39500000000001</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>34.26561659999999</v>
+        <v>46.73294000000001</v>
       </c>
       <c r="B13">
-        <v>27.68703182407981</v>
+        <v>20.24442952854933</v>
       </c>
       <c r="C13">
-        <v>38.48095999999999</v>
+        <v>65.36600000000001</v>
       </c>
       <c r="D13">
-        <v>34.93193800000279</v>
+        <v>42.40520000000001</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.4496756</v>
+        <v>64.94513999999998</v>
       </c>
       <c r="B14">
-        <v>9.730096806073641</v>
+        <v>29.05438314334689</v>
       </c>
       <c r="C14">
-        <v>30.80552000000005</v>
+        <v>63.84399999999999</v>
       </c>
       <c r="D14">
-        <v>31.88988999999771</v>
+        <v>42.4646</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.8028172</v>
+        <v>70.14308000000001</v>
       </c>
       <c r="B15">
-        <v>9.554210057424109</v>
+        <v>36.24451082072429</v>
       </c>
       <c r="C15">
-        <v>27.11104000000002</v>
+        <v>64.79799999999999</v>
       </c>
       <c r="D15">
-        <v>30.1351480000001</v>
+        <v>42.59599999999997</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>34.1372154</v>
+        <v>83.31609999999999</v>
       </c>
       <c r="B16">
-        <v>9.894978594448954</v>
+        <v>43.44133500906711</v>
       </c>
       <c r="C16">
-        <v>24.98342000000003</v>
+        <v>60.794</v>
       </c>
       <c r="D16">
-        <v>28.61481000000026</v>
+        <v>42.84619999999999</v>
       </c>
       <c r="E16">
         <v>32768</v>
